--- a/MoneyTracker/Helpers/Excel/SeedFiles/StatementEntry.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/StatementEntry.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\Samples\MoneyTrackerPOCInMem\MoneyTrackerPOCInMem\DAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05828102-CC63-47EA-BC27-E86EDB38ED2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{126532BD-4E0D-4A44-AC5C-A72672967616}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,14 +493,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1347FFA-8804-4906-8DC8-51124D9DBDDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -568,7 +587,7 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>-1024.6400000000001</v>
       </c>
       <c r="E2">
@@ -624,7 +643,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>11111.11</v>
       </c>
       <c r="E3">
@@ -680,7 +699,7 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>-33.33</v>
       </c>
       <c r="E4">
@@ -736,7 +755,7 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>-123</v>
       </c>
       <c r="E5">
@@ -792,7 +811,7 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>-68</v>
       </c>
       <c r="E6">
@@ -848,7 +867,7 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>470.9</v>
       </c>
       <c r="E7">
@@ -904,7 +923,7 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>-12</v>
       </c>
       <c r="E8">
@@ -960,7 +979,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>1618.8</v>
       </c>
       <c r="E9">
@@ -1016,7 +1035,7 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1401.5</v>
       </c>
       <c r="E10">
@@ -1072,7 +1091,7 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>93</v>
       </c>
       <c r="E11">
@@ -1128,7 +1147,7 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>-563.5</v>
       </c>
       <c r="E12">
@@ -1184,7 +1203,7 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>-12618.07</v>
       </c>
       <c r="E13">
@@ -1240,7 +1259,7 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>-2758</v>
       </c>
       <c r="E14">
@@ -1296,7 +1315,7 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>-33.33</v>
       </c>
       <c r="E15">
@@ -1344,5 +1363,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MoneyTracker/Helpers/Excel/SeedFiles/StatementEntry.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/StatementEntry.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\src\Nedbank.MoneyTracker.Api\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A86946-983F-4B46-AE52-F0175FA4DF3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="86">
   <si>
     <t>StatementEntryId</t>
   </si>
@@ -294,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,14 +741,14 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -783,14 +782,14 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>

--- a/MoneyTracker/Helpers/Excel/SeedFiles/StatementEntry.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/StatementEntry.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="86">
   <si>
     <t>StatementEntryId</t>
   </si>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,8 +738,8 @@
       <c r="H2" s="1">
         <v>43676</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -779,8 +779,8 @@
       <c r="H3" s="1">
         <v>43676</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -820,8 +820,8 @@
       <c r="H4" s="1">
         <v>43676</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="I4" s="3">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -861,8 +861,8 @@
       <c r="H5" s="1">
         <v>43676</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
+      <c r="I5" s="3">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -902,8 +902,8 @@
       <c r="H6" s="1">
         <v>43676</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
+      <c r="I6" s="3">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
@@ -943,8 +943,8 @@
       <c r="H7" s="1">
         <v>43676</v>
       </c>
-      <c r="I7" t="s">
-        <v>24</v>
+      <c r="I7" s="3">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -984,8 +984,8 @@
       <c r="H8" s="1">
         <v>43676</v>
       </c>
-      <c r="I8" t="s">
-        <v>24</v>
+      <c r="I8" s="3">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -1025,8 +1025,8 @@
       <c r="H9" s="1">
         <v>43676</v>
       </c>
-      <c r="I9" t="s">
-        <v>24</v>
+      <c r="I9" s="3">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
@@ -1066,8 +1066,8 @@
       <c r="H10" s="1">
         <v>43676</v>
       </c>
-      <c r="I10" t="s">
-        <v>24</v>
+      <c r="I10" s="3">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
@@ -1107,8 +1107,8 @@
       <c r="H11" s="1">
         <v>43676</v>
       </c>
-      <c r="I11" t="s">
-        <v>24</v>
+      <c r="I11" s="3">
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
@@ -1148,8 +1148,8 @@
       <c r="H12" s="5">
         <v>43707</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
+      <c r="I12" s="3">
+        <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>24</v>
@@ -1189,8 +1189,8 @@
       <c r="H13" s="5">
         <v>43707</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
+      <c r="I13" s="3">
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>24</v>
@@ -1230,8 +1230,8 @@
       <c r="H14" s="5">
         <v>43707</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
+      <c r="I14" s="3">
+        <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1271,8 +1271,8 @@
       <c r="H15" s="5">
         <v>43707</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>24</v>
+      <c r="I15" s="3">
+        <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>24</v>
@@ -1312,8 +1312,8 @@
       <c r="H16" s="5">
         <v>43707</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
+      <c r="I16" s="3">
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>24</v>
@@ -1353,8 +1353,8 @@
       <c r="H17" s="5">
         <v>43707</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>24</v>
+      <c r="I17" s="3">
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>24</v>
@@ -1394,8 +1394,8 @@
       <c r="H18" s="5">
         <v>43707</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
+      <c r="I18" s="3">
+        <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>24</v>
@@ -1435,8 +1435,8 @@
       <c r="H19" s="5">
         <v>43707</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>24</v>
+      <c r="I19" s="3">
+        <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>24</v>
@@ -1476,8 +1476,8 @@
       <c r="H20" s="5">
         <v>43707</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>24</v>
+      <c r="I20" s="3">
+        <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>24</v>
@@ -1517,8 +1517,8 @@
       <c r="H21" s="5">
         <v>43707</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>24</v>
+      <c r="I21" s="3">
+        <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>24</v>
@@ -1558,8 +1558,8 @@
       <c r="H22" s="5">
         <v>43707</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
+      <c r="I22" s="3">
+        <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
@@ -1599,8 +1599,8 @@
       <c r="H23" s="5">
         <v>43707</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>24</v>
+      <c r="I23" s="3">
+        <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>24</v>
@@ -1640,8 +1640,8 @@
       <c r="H24" s="5">
         <v>43707</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>24</v>
+      <c r="I24" s="3">
+        <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>24</v>
@@ -1681,8 +1681,8 @@
       <c r="H25" s="5">
         <v>43707</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>24</v>
+      <c r="I25" s="3">
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>24</v>
@@ -1722,8 +1722,8 @@
       <c r="H26" s="5">
         <v>43707</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>24</v>
+      <c r="I26" s="3">
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>24</v>
@@ -1763,8 +1763,8 @@
       <c r="H27" s="5">
         <v>43707</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>24</v>
+      <c r="I27" s="3">
+        <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>24</v>
@@ -1804,8 +1804,8 @@
       <c r="H28" s="5">
         <v>43707</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>24</v>
+      <c r="I28" s="3">
+        <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>24</v>
@@ -1845,8 +1845,8 @@
       <c r="H29" s="5">
         <v>43707</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1886,8 +1886,8 @@
       <c r="H30" s="5">
         <v>43707</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>24</v>
+      <c r="I30" s="3">
+        <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>24</v>
@@ -1927,8 +1927,8 @@
       <c r="H31" s="5">
         <v>43707</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>24</v>
+      <c r="I31" s="3">
+        <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>24</v>
@@ -1968,8 +1968,8 @@
       <c r="H32" s="5">
         <v>43707</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>24</v>
+      <c r="I32" s="3">
+        <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>24</v>
@@ -2009,8 +2009,8 @@
       <c r="H33" s="5">
         <v>43707</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>24</v>
+      <c r="I33" s="3">
+        <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>24</v>
@@ -2050,8 +2050,8 @@
       <c r="H34" s="5">
         <v>43707</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>24</v>
+      <c r="I34" s="3">
+        <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>24</v>
@@ -2091,8 +2091,8 @@
       <c r="H35" s="5">
         <v>43707</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>24</v>
+      <c r="I35" s="3">
+        <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>24</v>
@@ -2132,8 +2132,8 @@
       <c r="H36" s="5">
         <v>43707</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>24</v>
+      <c r="I36" s="3">
+        <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>24</v>
@@ -2173,8 +2173,8 @@
       <c r="H37" s="5">
         <v>43707</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>24</v>
+      <c r="I37" s="3">
+        <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>24</v>
@@ -2214,8 +2214,8 @@
       <c r="H38" s="5">
         <v>43707</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>24</v>
+      <c r="I38" s="3">
+        <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>24</v>
@@ -2255,8 +2255,8 @@
       <c r="H39" s="5">
         <v>43707</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>24</v>
+      <c r="I39" s="3">
+        <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>24</v>
@@ -2296,8 +2296,8 @@
       <c r="H40" s="5">
         <v>43707</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>24</v>
+      <c r="I40" s="3">
+        <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>24</v>
@@ -2337,8 +2337,8 @@
       <c r="H41" s="5">
         <v>43707</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>24</v>
+      <c r="I41" s="3">
+        <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>24</v>
@@ -2378,8 +2378,8 @@
       <c r="H42" s="5">
         <v>43707</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>24</v>
+      <c r="I42" s="3">
+        <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -2419,8 +2419,8 @@
       <c r="H43" s="5">
         <v>43707</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>24</v>
+      <c r="I43" s="3">
+        <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>24</v>
